--- a/Data/Mfp/Mfp_Model_Base_06'2021-1.xlsx
+++ b/Data/Mfp/Mfp_Model_Base_06'2021-1.xlsx
@@ -1789,7 +1789,7 @@
   <dimension ref="A1:AH417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="Q1" sqref="Q1:R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
